--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\MeuProjeto\AdvShopMobileBDD\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Apresentar\AdvShopMobileBDD\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2600371-B000-435C-9896-00AD348DF247}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD8656-2E63-43DA-A30D-1B95FFFA1C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1965" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>BOSE SOUNDLINK</t>
   </si>
   <si>
-    <t>LegoZ80</t>
+    <t>LegoZ86</t>
   </si>
 </sst>
 </file>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Apresentar\AdvShopMobileBDD\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD8656-2E63-43DA-A30D-1B95FFFA1C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B8784-EA74-4569-A594-308FACB000F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="285" yWindow="240" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Matheus</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>LegoZ86</t>
+  </si>
+  <si>
+    <t>HEADSET H390</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +656,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
